--- a/买房.xlsx
+++ b/买房.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code\offer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A555DAF-B488-4D28-BEB1-CA899A319A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E546557B-5671-4C2F-B2C6-0C58B89157E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="7" xr2:uid="{2373C7D7-3A0B-4384-90EC-BF2B4AF4B083}"/>
   </bookViews>
@@ -330,16 +330,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>167640</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>472440</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>208748</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>48213</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>513548</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>116793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -362,8 +362,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2910840" y="0"/>
+          <a:off x="11750040" y="1074420"/>
           <a:ext cx="5527508" cy="5412693"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>513743</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>141457</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C17D856-F2BE-E2E1-D8B2-BE1512700E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="662940"/>
+          <a:ext cx="13010543" cy="9201637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1003,8 +1047,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AFE7ED4-FB9A-45C0-9821-608CF660B376}">
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
